--- a/src/main/resources/templates/aa.xlsx
+++ b/src/main/resources/templates/aa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>&lt;/jx:forEach&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,13 +38,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+    <rPh sb="0" eb="1">
+      <t>xu'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <rPh sb="0" eb="1">
+      <t>xing'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <rPh sb="0" eb="1">
+      <t>gon's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公地点</t>
+    <rPh sb="0" eb="1">
+      <t>ban'gong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <rPh sb="0" eb="1">
+      <t>nian'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地点</t>
+    <rPh sb="0" eb="1">
+      <t>chu'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.workUnit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.workAddrs}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.age}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.brothPlace}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
+    <t>上海汇招</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>江苏南京</t>
+  </si>
+  <si>
     <t>李四</t>
   </si>
   <si>
+    <t>江苏苏州</t>
+  </si>
+  <si>
     <t>王五</t>
+  </si>
+  <si>
+    <t>江苏南通</t>
+  </si>
+  <si>
+    <t>杜*</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>李*</t>
+  </si>
+  <si>
+    <t>王*</t>
   </si>
 </sst>
 </file>
@@ -368,31 +462,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="61.83203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
     <col min="2" max="2" customWidth="true" width="19.83203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2" ht="16.0" customHeight="true">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="16.0" customHeight="true">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2" ht="16.0" customHeight="true">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="16.0" customHeight="true">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="16.0" customHeight="true">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="16.0" customHeight="true">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="16.0" customHeight="true">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="16.0" customHeight="true">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/aa.xlsx
+++ b/src/main/resources/templates/aa.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cairuwang/java/githubCode/myUtils/src/main/resources/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cairuwang/java/code/myUtils/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8B181A-C76D-E64D-B1B9-2A3774BC1D27}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$7</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,37 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${staffs}" var="item"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.userName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <rPh sb="0" eb="1">
-      <t>xu'h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
       <t>xing'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司</t>
-    <rPh sb="0" eb="1">
-      <t>gon's</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,67 +64,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${item.workUnit}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.workAddrs}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.age}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.brothPlace}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
   </si>
   <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>江苏南京</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>江苏苏州</t>
+  </si>
+  <si>
+    <t>王五</t>
+  </si>
+  <si>
+    <t>江苏南通</t>
+  </si>
+  <si>
+    <t>杜*</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>李*</t>
+  </si>
+  <si>
+    <t>王*</t>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上海汇招</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>江苏南京</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>江苏苏州</t>
-  </si>
-  <si>
-    <t>王五</t>
-  </si>
-  <si>
-    <t>江苏南通</t>
-  </si>
-  <si>
-    <t>杜*</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
-    <t>李*</t>
-  </si>
-  <si>
-    <t>王*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +176,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -461,160 +446,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.83203125" collapsed="false"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2" ht="16.0" customHeight="true">
-      <c r="A2" t="s">
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="16.0" customHeight="true">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="16.0" customHeight="true">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" ht="16.0" customHeight="true">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="16.0" customHeight="true">
-      <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="16.0" customHeight="true">
-      <c r="A7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>21</v>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F7" xr:uid="{2D2B5BCC-A2AC-5643-A2F5-CD619D2E7FFE}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="北京"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
